--- a/plan.xlsx
+++ b/plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>杨得圃</t>
   </si>
@@ -74,6 +74,16 @@
   <si>
     <t>https://zhuanlan.zhihu.com/p/25228075                    
 从0到1，Python异步编程的演进之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、https://zhuanlan.zhihu.com/p/25228075
+1、https://zhuanlan.zhihu.com/p/31410589
+1.1、https://zhuanlan.zhihu.com/p/31634491                                               
+2、http://aosabook.org/en/500L/a-web-crawler-with-asyncio-coroutines.html
+3、https://www.jianshu.com/p/9eb32a514e4c
+4、https://blog.csdn.net/xfgryujk/article/details/80854750
+5、哈哈哈测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,13 +97,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0、https://zhuanlan.zhihu.com/p/25228075
-1、https://zhuanlan.zhihu.com/p/31410589
-1.1、https://zhuanlan.zhihu.com/p/31634491                                               
-2、http://aosabook.org/en/500L/a-web-crawler-with-asyncio-coroutines.html
-3、https://www.jianshu.com/p/9eb32a514e4c
-4、https://blog.csdn.net/xfgryujk/article/details/80854750
-5、哈哈哈测试</t>
+    <t>用 Python 实现常用算法和数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/31700423</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +256,7 @@
       <alignment vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" indent="1"/>
     </xf>
@@ -315,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,7 +632,7 @@
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" customHeight="1"/>
@@ -793,10 +804,10 @@
         <v>7.27</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.25">
@@ -836,8 +847,12 @@
       <c r="B18" s="8">
         <v>7.3100000000000103</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="26.25" customHeight="1">
       <c r="A19" s="3" t="s">
@@ -1194,36 +1209,67 @@
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" ht="21" customHeight="1">
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="C61" s="22">
+        <v>8</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="21" customHeight="1">
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="C62" s="22">
+        <v>9</v>
+      </c>
+      <c r="D62" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="21" customHeight="1">
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="22">
+        <v>10</v>
+      </c>
+      <c r="D63" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="21" customHeight="1">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="22">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2000</v>
+      </c>
     </row>
     <row r="65" spans="3:4" ht="21" customHeight="1">
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="22">
+        <v>12</v>
+      </c>
+      <c r="D65" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="66" spans="3:4" ht="21" customHeight="1">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="C66" s="22">
+        <v>1</v>
+      </c>
+      <c r="D66" s="10">
+        <v>5000</v>
+      </c>
     </row>
     <row r="67" spans="3:4" ht="21" customHeight="1">
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
+      <c r="C67" s="22">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10">
+        <v>12000</v>
+      </c>
     </row>
     <row r="68" spans="3:4" ht="21" customHeight="1">
       <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10">
+        <f>D61+D62+D63+D64+D65+D66+D67</f>
+        <v>36000</v>
+      </c>
     </row>
     <row r="69" spans="3:4" ht="21" customHeight="1">
       <c r="C69" s="10"/>
@@ -1751,7 +1797,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
 </worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -97,11 +97,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用 Python 实现常用算法和数据结构</t>
+    <t>https://zhuanlan.zhihu.com/p/31700423
+https://blog.csdn.net/python2014/article/details/21227199</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://zhuanlan.zhihu.com/p/31700423</t>
+    <t>用 Python 实现常用算法和数据结构
+数据结构与算法（csdn）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +634,7 @@
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" customHeight="1"/>
@@ -840,7 +842,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="26.25" customHeight="1">
+    <row r="18" spans="1:4" ht="34.5">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,10 +850,10 @@
         <v>7.3100000000000103</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.25" customHeight="1">
@@ -1798,7 +1800,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D18" r:id="rId1" display="https://zhuanlan.zhihu.com/p/31700423"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>杨得圃</t>
   </si>
@@ -104,6 +104,22 @@
   <si>
     <t>用 Python 实现常用算法和数据结构
 数据结构与算法（csdn）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/35746049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Python编写简单ORM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/36960124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python3 异步代理爬虫池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +650,7 @@
   <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="16.5" customHeight="1"/>
@@ -893,8 +909,12 @@
       <c r="B22" s="6">
         <v>8.0399999999999991</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="26.25" customHeight="1">
       <c r="A23" s="4" t="s">
@@ -903,8 +923,12 @@
       <c r="B23" s="6">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="26.25" customHeight="1">
       <c r="A24" s="3" t="s">
